--- a/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Hostel_Master Screens.xlsx
+++ b/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Hostel_Master Screens.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" tabRatio="712"/>
+    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="712" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TC1_Hostel_Masters" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="261">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Hostel Type</t>
   </si>
   <si>
-    <t>url: erp.worldskillcenter.org</t>
+    <t>url: wscdemo.eduleadonline.com</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -73,7 +73,7 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t xml:space="preserve">Actual Results </t>
+    <t>Actual Results ( Hostel Administrator)</t>
   </si>
   <si>
     <t>Pass/Fail/Not Executed/Suspended</t>
@@ -91,76 +91,118 @@
     <t>Hostel Masters page should be open</t>
   </si>
   <si>
+    <t>Hostel Masters page   is opening</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>View the Hostel Masters  page</t>
   </si>
   <si>
     <t xml:space="preserve"> saved data should be shown on Hostel Masters page</t>
   </si>
   <si>
+    <t xml:space="preserve"> saved data   is showing on Hostel Masters page</t>
+  </si>
+  <si>
     <t>Click Add Hostel Masters button</t>
   </si>
   <si>
     <t>Add Hostel Masters button should be clickable and new Hostel addition page should be open</t>
   </si>
   <si>
+    <t>Add Hostel Masters button   is clickable and new Hostel addition page   is opening</t>
+  </si>
+  <si>
     <t>Without fill any mandatory fields, click on save button</t>
   </si>
   <si>
     <t>Page should not proceed. Alert message should be shown for unfilled mandatory fields. Mandatory fields should be mentioned as * symbol.</t>
   </si>
   <si>
+    <t>Page  is not proceed. Alert message   is showing for unfilled mandatory fields. Mandatory fields   mentioned as * symbol.</t>
+  </si>
+  <si>
     <t>fill only mandatory fields, click on save button</t>
   </si>
   <si>
     <t>Page should be saved successfully</t>
   </si>
   <si>
+    <t>Page   is saved successfully</t>
+  </si>
+  <si>
     <t>click on hostel name text field, type the hostel name</t>
   </si>
   <si>
     <t>Hostel name text box should be clickable. user should able to type in hostel name textbox</t>
   </si>
   <si>
+    <t>Hostel name text box   is clickable. user  able to type in hostel name textbox</t>
+  </si>
+  <si>
     <t>click on total floors text field, type the total floors</t>
   </si>
   <si>
     <t>total floors text box should be clickable. user should able to type in total floors textbox</t>
   </si>
   <si>
+    <t>total floors text box  is clickable. user is  able to type in total floors textbox</t>
+  </si>
+  <si>
     <t>click on Hostel Short Name text field, type the hostel short name</t>
   </si>
   <si>
     <t>Hostel Short Name text box should be clickable. user should able to type in Hostel Short Name textbox</t>
   </si>
   <si>
+    <t>Hostel Short Name text box   is clickable. user is  able to type in Hostel Short Name textbox</t>
+  </si>
+  <si>
     <t>click on total Rooms text field, type the total Rooms</t>
   </si>
   <si>
     <t>total Rooms text box should be clickable. user should able to type in total Rooms textbox</t>
   </si>
   <si>
+    <t>total Rooms text box   is clickable. user is  able to type in total Rooms textbox</t>
+  </si>
+  <si>
     <t>click on Hostel Phone Number 1 text field, type the number</t>
   </si>
   <si>
     <t>Hostel Phone Number 1 text box should be clickable. user should able to type the number. It should be accepted only numeric &amp; 10 digits</t>
   </si>
   <si>
+    <t>Hostel Phone Numr 1 text box   is clickable. user  is able to type the numr. It   accepted only numeric &amp; 10 digits</t>
+  </si>
+  <si>
     <t>click on Hostel Phone Number 2 text field, type the number</t>
   </si>
   <si>
     <t>Hostel Phone Number 2 text box should be clickable. user should able to type the number.  It should be accepted only numeric &amp; 10 digits</t>
   </si>
   <si>
+    <t>Hostel Phone Numr 2 text box   is clickable. user  is able to type the numr.  It   accepted only numeric &amp; 10 digits</t>
+  </si>
+  <si>
     <t>click on campus text field, type the campus</t>
   </si>
   <si>
     <t>campus text box should be clickable. user should able to type the campus</t>
   </si>
   <si>
+    <t>campus text box   is clickable. user  is able to type the campus</t>
+  </si>
+  <si>
     <t>click on No. Of Blocks text field, type the No. Of Blocks</t>
   </si>
   <si>
     <t>No. Of Blocks text box should be clickable. user should able to type the No. Of Blocks</t>
+  </si>
+  <si>
+    <t>No. Of Blocks text box   is clickable. user  is able to type the No. Of Blocks</t>
   </si>
   <si>
     <t>click on hostel type dropdown, select one hostel type</t>
@@ -170,54 +212,82 @@
 it should be a link field. it should be linked with hostel type screen</t>
   </si>
   <si>
+    <t>hostel type dropdown   is clickable. data   is showing in dropdown list. User is  able to select the dat
+it   a link field. it   linked with hostel type screen</t>
+  </si>
+  <si>
     <t>Verify the Start date field</t>
   </si>
   <si>
     <t>Start date should be default date of today. it should not be editable</t>
   </si>
   <si>
+    <t>Start date  is  default date of today. it is  not  editable</t>
+  </si>
+  <si>
     <t>Click on end date, put the date</t>
   </si>
   <si>
     <t>End date should be clickable. datepicker box should be open. user should able to put the date</t>
   </si>
   <si>
+    <t>End date   is clickable. datepicker box   is opening. user is  able to put the date</t>
+  </si>
+  <si>
     <t>click on Address Line 1 text field, type the address</t>
   </si>
   <si>
     <t>Address Line 1 text box should be clickable. user should able to type the address</t>
   </si>
   <si>
+    <t>Address Line 1 text box   is clickable. user  is able to type the address</t>
+  </si>
+  <si>
     <t>click on Address Line 2 text field, type the address</t>
   </si>
   <si>
     <t>Address Line 2 text box should be clickable. user should able to type the address</t>
   </si>
   <si>
+    <t>Address Line 2 text box   is clickable. user  is able to type the address</t>
+  </si>
+  <si>
     <t>click on city text field, type the city</t>
   </si>
   <si>
     <t>city text box should be clickable. user should able to type the city</t>
   </si>
   <si>
+    <t>city text box   is clickable. user  is able to type the city</t>
+  </si>
+  <si>
     <t>click on state text field, type the state</t>
   </si>
   <si>
     <t>state text box should be clickable. user should able to type the state</t>
   </si>
   <si>
+    <t>state text box   is clickable. user is  able to type the state</t>
+  </si>
+  <si>
     <t>click on pincode text field, type the pincode</t>
   </si>
   <si>
     <t>pincode text box should be clickable. user should able to type the pincode. it should be accepted only numeric &amp; 6 digits</t>
   </si>
   <si>
+    <t>pincode text box   is clickable. user is able to type the pincode. it   accepted only numeric &amp; 6 digits</t>
+  </si>
+  <si>
     <t>After fill the mandatory &amp; required fields, click on save button</t>
   </si>
   <si>
     <t>Page should be saved successfully. New hostel should be created</t>
   </si>
   <si>
+    <t>Page  is saved successfully. New hostel   created</t>
+  </si>
+  <si>
     <t>Roles And Permission</t>
   </si>
   <si>
@@ -225,6 +295,235 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hostel Administrator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and check the access privileges</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The user should have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read,Write,Create &amp; Delete</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The user have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read,Write,Create &amp; Delete</t>
+    </r>
+  </si>
+  <si>
+    <t>TC2_Room_Masters</t>
+  </si>
+  <si>
+    <t>The Room Masters screen show the details of rooms for particular hostel. Here user mention room capacity, description, type and feature.</t>
+  </si>
+  <si>
+    <t>1.Hostel Masters
+2.Room Description
+3.Room Type</t>
+  </si>
+  <si>
+    <t>Add Room masters, Hostel and Room Info, Default Room Type Info, Current Room Type</t>
+  </si>
+  <si>
+    <t>Home &gt; Hostel &gt; Masters &gt;  Room Masters</t>
+  </si>
+  <si>
+    <t>Click on Home &gt; Hostel &gt; Masters &gt; Room Masters</t>
+  </si>
+  <si>
+    <t>Room Masters page should be open</t>
+  </si>
+  <si>
+    <t>Room Masters page is opening</t>
+  </si>
+  <si>
+    <t>View the Room Masters  page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saved data should be shown on Room Masters page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saved data is showing on Room Masters page</t>
+  </si>
+  <si>
+    <t>Click Add Room Masters button</t>
+  </si>
+  <si>
+    <t>Add Room Masters button should be clickable and new Room addition page should be open</t>
+  </si>
+  <si>
+    <t>Add Room Masters button is clickable and new Room addition page is opening</t>
+  </si>
+  <si>
+    <t>Page  is not proceed. Alert message is showing for unfilled mandatory fields. Mandatory fields is mentioned as * symbol.</t>
+  </si>
+  <si>
+    <t>Page is saved successfully</t>
+  </si>
+  <si>
+    <t>click on hostel dropdown, select the hostel</t>
+  </si>
+  <si>
+    <t>Hostel dropdown should be clickable. Dropdown should be open. user should able to choose the hostel 
+it should be a link field. it should be linked with the hostel screen</t>
+  </si>
+  <si>
+    <t>Hostel dropdown is clickable. Dropdown is opening. user  able to choose the hostel 
+it is a link field. it is linked with the hostel screen</t>
+  </si>
+  <si>
+    <t>Click on room number textbox, type the room number</t>
+  </si>
+  <si>
+    <t>Room numbe textbox should be clickable. user should able to fill room number field</t>
+  </si>
+  <si>
+    <t>Room number textbox is clickable. user  able to fill room number field</t>
+  </si>
+  <si>
+    <t>click on floor no. dropdown, select the floor no.</t>
+  </si>
+  <si>
+    <t>floor no. dropdown should be clickable. Dropdown should be open. user should able to choose the floor no.</t>
+  </si>
+  <si>
+    <t>floor no. dropdown is clickable. Dropdown is opening. user  able to choose the floor no.</t>
+  </si>
+  <si>
+    <t>click on Room Description dropdown, select the Room Description</t>
+  </si>
+  <si>
+    <t>Room Description dropdown should be clickable. Dropdown should be open. user should able to choose the Room Description 
+it should be a link field. it should be linked with the Room Description screen</t>
+  </si>
+  <si>
+    <t>Room Description dropdown is clickable. Dropdown is opening. user is  able to choose the Room Description 
+it is a link field. it is linked with the Room Description screen</t>
+  </si>
+  <si>
+    <t>click on validity dropdown, select the validity. 
+default data: Approved 
+                           Dis-Approved</t>
+  </si>
+  <si>
+    <t>validity dropdown should be clickable. Dropdown should be open. user should able to choose the validity</t>
+  </si>
+  <si>
+    <t>validity dropdown is clickable. Dropdown is opening. user  able to choose the validity</t>
+  </si>
+  <si>
+    <t>Click on block textbox, type the block</t>
+  </si>
+  <si>
+    <t>block textbox should be clickable. user should able to fill block field</t>
+  </si>
+  <si>
+    <t>block textbox is clickable. user is able to fill block field</t>
+  </si>
+  <si>
+    <t>click on default room type dropdown, select the data</t>
+  </si>
+  <si>
+    <t>Default room type dropdown should be clickable. data should be shown in dropdown list. user should able to select the data
+it should be a link field. it should be linked with roomtype screen</t>
+  </si>
+  <si>
+    <t>Default room type dropdown is clickable. data is showing in dropdown list. user  is able to select the data
+it is a link field. it is linked with roomtype screen</t>
+  </si>
+  <si>
+    <t>Verify the page after select default room type</t>
+  </si>
+  <si>
+    <t>Data shopuld be auto populate as per the room type</t>
+  </si>
+  <si>
+    <t>Data is  auto populate as per the room type</t>
+  </si>
+  <si>
+    <t>click on current room type dropdown, select the data</t>
+  </si>
+  <si>
+    <t>Current room type dropdown should be clickable. data should be shown in dropdown list. user should able to select the data
+it should be a link field. it should be linked with roomtype screen</t>
+  </si>
+  <si>
+    <t>Current room type dropdown is clickable. data is showing in dropdown list. user  is able to select the data
+it is a link field. it is linked with roomtype screen</t>
+  </si>
+  <si>
+    <t>Verify the page after select current room type</t>
+  </si>
+  <si>
+    <t>Data is auto populate as per the room type</t>
+  </si>
+  <si>
+    <t>click on Current Room Capacity dropdown, select the Current Room Capacity</t>
+  </si>
+  <si>
+    <t>Current Room Capacity dropdown should be clickable. Dropdown should be open. user should able to choose the Current Room Capacity</t>
+  </si>
+  <si>
+    <t>Current Room Capacity dropdown is clickable. Dropdown is opening. user  is able to choose the Current Room Capacity</t>
+  </si>
+  <si>
+    <t>Page should be saved successfully. New room shoud be created.</t>
+  </si>
+  <si>
+    <t>Page is saved successfully. New room shoud be created.</t>
   </si>
   <si>
     <r>
@@ -260,15 +559,65 @@
     </r>
   </si>
   <si>
+    <t>TC3_Hostel_Type</t>
+  </si>
+  <si>
+    <t>Hostel Type is a master screen where user can define type of hostel.</t>
+  </si>
+  <si>
+    <t>Add Hostel Type</t>
+  </si>
+  <si>
+    <t>Home &gt; Hostel &gt; Masters &gt; Hostel Type</t>
+  </si>
+  <si>
+    <t>Click on Home &gt; Hostel &gt; Masters &gt; Hostel Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hostel Type page should be open</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hostel Type page is opening</t>
+  </si>
+  <si>
+    <t>View the Hostel Type  page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saved data should be shown on Hostel Type page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saved data is showing on Hostel Type page</t>
+  </si>
+  <si>
+    <t>Click Add  Hostel Type button</t>
+  </si>
+  <si>
+    <t>Add Hostel Type button should be clickable and new Hostel Type addition page should be open</t>
+  </si>
+  <si>
+    <t>Add Hostel Type button is clickable and new Hostel Type addition page is opening</t>
+  </si>
+  <si>
+    <t>Page should is not proceed. Alert message is showing for unfilled mandatory fields. Mandatory fields is mentioned as * symbol.</t>
+  </si>
+  <si>
+    <t>click on hostel type text box, fill it</t>
+  </si>
+  <si>
+    <t>Hostel type textbox should be clickable. user should able to fill hostel type textbox</t>
+  </si>
+  <si>
+    <t>Hostel type textbox is clickable. user is able to fill hostel type textbox</t>
+  </si>
+  <si>
+    <t>Page should be saved successfully. New hostel type should be created</t>
+  </si>
+  <si>
+    <t>Page is saved successfully. New hostel type is created</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The user should have all the following accesses:
+      <t xml:space="preserve">The user  have all the following accesses:
 </t>
     </r>
     <r>
@@ -284,152 +633,6 @@
     </r>
   </si>
   <si>
-    <t>TC2_Room_Masters</t>
-  </si>
-  <si>
-    <t>The Room Masters screen show the details of rooms for particular hostel. Here user mention room capacity, description, type and feature.</t>
-  </si>
-  <si>
-    <t>1.Hostel Masters
-2.Room Description
-3.Room Type</t>
-  </si>
-  <si>
-    <t>Add Room masters, Hostel and Room Info, Default Room Type Info, Current Room Type</t>
-  </si>
-  <si>
-    <t>Home &gt; Hostel &gt; Masters &gt;  Room Masters</t>
-  </si>
-  <si>
-    <t>Click on Home &gt; Hostel &gt; Masters &gt; Room Masters</t>
-  </si>
-  <si>
-    <t>Room Masters page should be open</t>
-  </si>
-  <si>
-    <t>View the Room Masters  page</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> saved data should be shown on Room Masters page</t>
-  </si>
-  <si>
-    <t>Click Add Room Masters button</t>
-  </si>
-  <si>
-    <t>Add Room Masters button should be clickable and new Room addition page should be open</t>
-  </si>
-  <si>
-    <t>click on hostel dropdown, select the hostel</t>
-  </si>
-  <si>
-    <t>Hostel dropdown should be clickable. Dropdown should be open. user should able to choose the hostel 
-it should be a link field. it should be linked with the hostel screen</t>
-  </si>
-  <si>
-    <t>Click on room number textbox, type the room number</t>
-  </si>
-  <si>
-    <t>Room numbe textbox should be clickable. user should able to fill room number field</t>
-  </si>
-  <si>
-    <t>click on floor no. dropdown, select the floor no.</t>
-  </si>
-  <si>
-    <t>floor no. dropdown should be clickable. Dropdown should be open. user should able to choose the floor no.</t>
-  </si>
-  <si>
-    <t>click on Room Description dropdown, select the Room Description</t>
-  </si>
-  <si>
-    <t>Room Description dropdown should be clickable. Dropdown should be open. user should able to choose the Room Description 
-it should be a link field. it should be linked with the Room Description screen</t>
-  </si>
-  <si>
-    <t>click on validity dropdown, select the validity. 
-default data: Approved 
-                           Dis-Approved</t>
-  </si>
-  <si>
-    <t>validity dropdown should be clickable. Dropdown should be open. user should able to choose the validity</t>
-  </si>
-  <si>
-    <t>Click on block textbox, type the block</t>
-  </si>
-  <si>
-    <t>block textbox should be clickable. user should able to fill block field</t>
-  </si>
-  <si>
-    <t>click on default room type dropdown, select the data</t>
-  </si>
-  <si>
-    <t>Default room type dropdown should be clickable. data should be shown in dropdown list. user should able to select the data
-it should be a link field. it should be linked with roomtype screen</t>
-  </si>
-  <si>
-    <t>Verify the page after select default room type</t>
-  </si>
-  <si>
-    <t>Data shopuld be auto populate as per the room type</t>
-  </si>
-  <si>
-    <t>click on current room type dropdown, select the data</t>
-  </si>
-  <si>
-    <t>Current room type dropdown should be clickable. data should be shown in dropdown list. user should able to select the data
-it should be a link field. it should be linked with roomtype screen</t>
-  </si>
-  <si>
-    <t>Verify the page after select current room type</t>
-  </si>
-  <si>
-    <t>click on Current Room Capacity dropdown, select the Current Room Capacity</t>
-  </si>
-  <si>
-    <t>Current Room Capacity dropdown should be clickable. Dropdown should be open. user should able to choose the Current Room Capacity</t>
-  </si>
-  <si>
-    <t>Page should be saved successfully. New room shoud be created.</t>
-  </si>
-  <si>
-    <t>TC3_Hostel_Type</t>
-  </si>
-  <si>
-    <t>Hostel Type is a master screen where user can define type of hostel.</t>
-  </si>
-  <si>
-    <t>Add Hostel Type</t>
-  </si>
-  <si>
-    <t>Home &gt; Hostel &gt; Masters &gt; Hostel Type</t>
-  </si>
-  <si>
-    <t>Click on Home &gt; Hostel &gt; Masters &gt; Hostel Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hostel Type page should be open</t>
-  </si>
-  <si>
-    <t>View the Hostel Type  page</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> saved data should be shown on Hostel Type page</t>
-  </si>
-  <si>
-    <t>Click Add  Hostel Type button</t>
-  </si>
-  <si>
-    <t>Add Hostel Type button should be clickable and new Hostel Type addition page should be open</t>
-  </si>
-  <si>
-    <t>click on hostel type text box, fill it</t>
-  </si>
-  <si>
-    <t>Hostel type textbox should be clickable. user should able to fill hostel type textbox</t>
-  </si>
-  <si>
-    <t>Page should be saved successfully. New hostel type should be created</t>
-  </si>
-  <si>
     <t>TC4_Room_Type</t>
   </si>
   <si>
@@ -439,6 +642,9 @@
     <t>Add Room Type</t>
   </si>
   <si>
+    <t xml:space="preserve">Actual Results </t>
+  </si>
+  <si>
     <t>Home &gt; Hostel &gt; Masters &gt; Room Type</t>
   </si>
   <si>
@@ -448,40 +654,64 @@
     <t xml:space="preserve"> Room Type page should be open</t>
   </si>
   <si>
+    <t xml:space="preserve"> Room Type page is opening</t>
+  </si>
+  <si>
     <t>View the Room Type  page</t>
   </si>
   <si>
     <t xml:space="preserve"> saved data should be shown on Room Type page</t>
   </si>
   <si>
+    <t xml:space="preserve"> saved data is showing on Room Type page</t>
+  </si>
+  <si>
     <t>Click Add  Room Type button</t>
   </si>
   <si>
     <t>Add Room Type button should be clickable and new Room Type addition page should be open</t>
   </si>
   <si>
+    <t>Add Room Type button is clickable and new Room Type addition page is opening</t>
+  </si>
+  <si>
     <t>Click on room type text box, fill it</t>
   </si>
   <si>
     <t>Room type textbox should be clickable. user should able to fill room type field</t>
   </si>
   <si>
+    <t>Room type textbox is clickable. user is able to fill room type field</t>
+  </si>
+  <si>
     <t>Verify the start date</t>
   </si>
   <si>
     <t>start date should be default as today date</t>
   </si>
   <si>
+    <t>start date is default as today date</t>
+  </si>
+  <si>
     <t>Click on description text box, fill it</t>
   </si>
   <si>
     <t>description textbox should be clickable. user should able to fill description field</t>
   </si>
   <si>
+    <t>description textbox is clickable. user should able to fill description field</t>
+  </si>
+  <si>
+    <t>End date is clickable. datepicker box is opening. user is able to put the date</t>
+  </si>
+  <si>
     <t>click on Capacity dropdown, select the Capacity</t>
   </si>
   <si>
     <t>Capacity dropdown should be clickable. Dropdown should be open. user should able to choose the Capacity</t>
+  </si>
+  <si>
+    <t>Capacity dropdown is clickable. Dropdown is opening. user is able to choose the Capacity</t>
   </si>
   <si>
     <t>click on feature dropdown, select the feature
@@ -493,6 +723,9 @@
     <t>feature dropdown should be clickable. Dropdown should be open. user should able to choose the feature</t>
   </si>
   <si>
+    <t>feature dropdown is clickable. Dropdown is opening. user should able to choose the feature</t>
+  </si>
+  <si>
     <t>click on Type of room dropdown, select the type of room
 default data: AC
                            Non-AC</t>
@@ -501,9 +734,15 @@
     <t>Type of room dropdown should be clickable. Dropdown should be open. user should able to choose the Type of room</t>
   </si>
   <si>
+    <t>Type of room dropdown is clickable. Dropdown is opening. user is able to choose the Type of room</t>
+  </si>
+  <si>
     <t>Page should be saved successfully. New room type should be created</t>
   </si>
   <si>
+    <t>Page is saved successfully. New room type is created</t>
+  </si>
+  <si>
     <t>TC5_Room_Description</t>
   </si>
   <si>
@@ -522,25 +761,43 @@
     <t xml:space="preserve"> Room Description page should be open</t>
   </si>
   <si>
+    <t xml:space="preserve"> Room Description page is opening</t>
+  </si>
+  <si>
     <t>View the Room Description  page</t>
   </si>
   <si>
     <t xml:space="preserve"> saved data should be shown on Room Description page</t>
   </si>
   <si>
+    <t xml:space="preserve"> saved data is showing on Room Description page</t>
+  </si>
+  <si>
     <t>Click Add  Room Description button</t>
   </si>
   <si>
     <t>Add Room Description button should be clickable and new Room Description addition page should be open</t>
   </si>
   <si>
+    <t>Add Room Description button is clickable and new Room Description addition page is opening</t>
+  </si>
+  <si>
+    <t>Page is not proceed. Alert message is showing for unfilled mandatory fields. Mandatory fields is mentioned as * symbol.</t>
+  </si>
+  <si>
     <t>Click on room Description text box, fill it</t>
   </si>
   <si>
     <t>Room Description textbox should be clickable. user should able to fill room Description field</t>
   </si>
   <si>
+    <t>Room Description textbox is clickable. user is able to fill room Description field</t>
+  </si>
+  <si>
     <t>Page should be saved successfully. New room description should be created</t>
+  </si>
+  <si>
+    <t>Page is saved successfully. New room description is created</t>
   </si>
   <si>
     <t>TC6_Employee_Hostel_Allotment</t>
@@ -565,16 +822,25 @@
     <t>Employee Hostel Allotment page should be open</t>
   </si>
   <si>
+    <t>Employee Hostel Allotment page is opening</t>
+  </si>
+  <si>
     <t>View the Employee Hostel Allotment page</t>
   </si>
   <si>
     <t xml:space="preserve"> saved data should be shown on Employee Hostel Allotment page</t>
   </si>
   <si>
+    <t xml:space="preserve"> saved data is showing on Employee Hostel Allotment page</t>
+  </si>
+  <si>
     <t>Click Add Employee Hostel Allotment button</t>
   </si>
   <si>
     <t>AddEmployee Hostel Allotment button should be clickable and newEmployee Hostel Allotment addition page should be open</t>
+  </si>
+  <si>
+    <t>AddEmployee Hostel Allotment button is clickable and new Employee Hostel Allotment addition page is opening</t>
   </si>
   <si>
     <t>click on employee ID dropdown, choose the employee</t>
@@ -584,10 +850,20 @@
 it should be a link field. it should be linked with the employee screen</t>
   </si>
   <si>
+    <t>employee id dropdown is clickable, dropdown is opening, data is showing on dropdown. user is able to select the employee
+it is a link field. it is linked with the employee screen</t>
+  </si>
+  <si>
     <t>Verify the page, after put the employee id</t>
   </si>
   <si>
     <t>that particular employee details like employee name, user name &amp; designation should be auto fetched on screen</t>
+  </si>
+  <si>
+    <t>that particular employee details like employee name, user name &amp; designation is auto fetched on screen</t>
+  </si>
+  <si>
+    <t>End date is clickable. datepicker box is opening. user should able to put the date</t>
   </si>
   <si>
     <t>Click on hostel masters dropdown, select the hostel</t>
@@ -595,6 +871,10 @@
   <si>
     <t>hostel masters dropdown should be clickable, dropdown should be open, data should be shown on dropdown. user should able to select the hostel
 it should be a link field. it should be linked with thehostel masters screen</t>
+  </si>
+  <si>
+    <t>hostel masters dropdown is clickable, dropdown is opening, data is showing on dropdown. user is able to select the hostel
+it is a link field. it is linked with thehostel masters screen</t>
   </si>
   <si>
     <t>click on role selection dropdown, select the role
@@ -606,13 +886,22 @@
     <t xml:space="preserve"> role selection dropdown should be clickable, dropdown should be open, data should be shown on dropdown. user should able to select the  role </t>
   </si>
   <si>
+    <t xml:space="preserve"> role selection dropdown is clickable, dropdown is opening, data is showing on dropdown. user is able to select the  role </t>
+  </si>
+  <si>
     <t>Page should be saved successfully. New Employee Hostel Allotment should be created</t>
   </si>
   <si>
+    <t>Page is saved successfully. New Employee Hostel Allotment is created</t>
+  </si>
+  <si>
     <t>TC7_Hostel_Material</t>
   </si>
   <si>
     <t>Hostel Material is master screen where user is going to maintain Material for distribution.</t>
+  </si>
+  <si>
+    <t>url: erp.worldskillcenter.org</t>
   </si>
   <si>
     <t>Add Hostel Material</t>
@@ -1036,7 +1325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1086,30 +1375,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1242,7 +1507,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1254,34 +1519,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1366,7 +1631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1424,14 +1689,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1754,8 +2031,8 @@
   <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1763,7 +2040,7 @@
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="58.7142857142857" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.2857142857143" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
@@ -1782,8 +2059,8 @@
       <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1799,35 +2076,59 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
+    <row r="3" spans="1:6">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:4">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="21"/>
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:3">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -1835,6 +2136,17 @@
         <v>13</v>
       </c>
       <c r="C8" s="3"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A10" s="9" t="s">
@@ -1856,253 +2168,411 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+    <row r="11" s="1" customFormat="1" spans="1:6">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:3">
-      <c r="A12" s="10">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
+      <c r="A12" s="23">
         <v>1</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:3">
-      <c r="A13" s="10">
+      <c r="D12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:6">
+      <c r="A13" s="23">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A14" s="10">
+      <c r="B13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A14" s="23">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A15" s="10">
+      <c r="B14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A15" s="23">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:3">
-      <c r="A16" s="10">
+      <c r="B15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:6">
+      <c r="A16" s="23">
         <v>5</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A17" s="10">
+      <c r="B16" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A17" s="23">
         <v>6</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:3">
-      <c r="A18" s="10">
+      <c r="B17" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A18" s="23">
         <v>7</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A19" s="10">
+      <c r="B18" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A19" s="23">
         <v>8</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A20" s="10">
+      <c r="B19" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A20" s="23">
         <v>9</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A21" s="10">
+      <c r="B20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A21" s="23">
         <v>10</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A22" s="10">
+      <c r="B21" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A22" s="23">
         <v>11</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:3">
-      <c r="A23" s="10">
+      <c r="B22" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:6">
+      <c r="A23" s="23">
         <v>12</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:3">
-      <c r="A24" s="10">
+      <c r="B23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A24" s="23">
         <v>13</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="45" spans="1:3">
-      <c r="A25" s="10">
+      <c r="B24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A25" s="23">
         <v>14</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:3">
-      <c r="A26" s="10">
+      <c r="B25" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:6">
+      <c r="A26" s="23">
         <v>15</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A27" s="10">
+      <c r="B26" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A27" s="23">
         <v>16</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:3">
-      <c r="A28" s="10">
+      <c r="B27" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A28" s="23">
         <v>17</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:3">
-      <c r="A29" s="10">
+      <c r="B28" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A29" s="23">
         <v>18</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:3">
-      <c r="A30" s="10">
+      <c r="B29" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:6">
+      <c r="A30" s="23">
         <v>19</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:3">
-      <c r="A31" s="10">
+      <c r="B30" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:6">
+      <c r="A31" s="23">
         <v>20</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A32" s="10">
+      <c r="B31" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A32" s="23">
         <v>21</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:3">
-      <c r="A33" s="10">
+      <c r="B32" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:6">
+      <c r="A33" s="23">
         <v>22</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="B33" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:1">
       <c r="A34" s="10"/>
@@ -2113,26 +2583,30 @@
     <row r="36" s="1" customFormat="1" spans="1:5">
       <c r="A36" s="10"/>
       <c r="B36" s="13" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="14" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A37" s="10"/>
       <c r="B37" s="16" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
+        <v>92</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:1">
       <c r="A38" s="10"/>
@@ -2162,8 +2636,8 @@
   <sheetPr/>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2171,7 +2645,7 @@
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55.1428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.2857142857143" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
@@ -2182,19 +2656,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="D1" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2204,48 +2678,91 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="45" spans="1:4">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="45" spans="1:7">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C5" s="21"/>
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:3">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:7">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C8" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
@@ -2264,199 +2781,341 @@
       <c r="F10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:3">
-      <c r="A12" s="10">
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="23">
         <v>1</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:3">
-      <c r="A13" s="10">
+      <c r="B12" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:7">
+      <c r="A13" s="23">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A14" s="10">
+      <c r="B13" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A14" s="23">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A15" s="10">
+      <c r="B14" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A15" s="23">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:3">
-      <c r="A16" s="10">
+      <c r="B15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:7">
+      <c r="A16" s="23">
         <v>5</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:3">
-      <c r="A17" s="10">
+      <c r="B16" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A17" s="23">
         <v>6</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:3">
-      <c r="A18" s="10">
+      <c r="B17" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A18" s="23">
         <v>7</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A19" s="10">
+      <c r="B18" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A19" s="23">
         <v>8</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A20" s="23">
+        <v>9</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A21" s="23">
+        <v>10</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:7">
+      <c r="A22" s="23">
+        <v>11</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A23" s="23">
+        <v>12</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:7">
+      <c r="A24" s="23">
+        <v>13</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A25" s="23">
+        <v>14</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:7">
+      <c r="A26" s="23">
+        <v>15</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A27" s="23">
+        <v>16</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:7">
+      <c r="A28" s="23">
+        <v>17</v>
+      </c>
+      <c r="B28" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="45" spans="1:3">
-      <c r="A20" s="10">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="45" spans="1:3">
-      <c r="A21" s="10">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:3">
-      <c r="A22" s="10">
-        <v>11</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="45" spans="1:3">
-      <c r="A23" s="10">
-        <v>12</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:3">
-      <c r="A24" s="10">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="45" spans="1:3">
-      <c r="A25" s="10">
-        <v>14</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:3">
-      <c r="A26" s="10">
-        <v>15</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A27" s="10">
-        <v>16</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:3">
-      <c r="A28" s="10">
-        <v>17</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="C28" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:1">
       <c r="A29" s="10"/>
@@ -2464,26 +3123,30 @@
     <row r="30" s="1" customFormat="1" spans="1:5">
       <c r="A30" s="10"/>
       <c r="B30" s="13" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="14" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A31" s="10"/>
       <c r="B31" s="16" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
+        <v>92</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:1">
       <c r="A32" s="10"/>
@@ -2514,7 +3177,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2522,7 +3185,7 @@
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.1428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.2857142857143" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
@@ -2533,19 +3196,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="D1" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2555,46 +3218,80 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:4">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:3">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="C7" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
@@ -2613,89 +3310,151 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:3">
-      <c r="A11" s="10">
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:7">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="23">
         <v>1</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:3">
-      <c r="A12" s="10">
+      <c r="B11" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="23">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A13" s="23">
+        <v>3</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A14" s="23">
+        <v>4</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:7">
+      <c r="A15" s="23">
+        <v>5</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A13" s="10">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A14" s="10">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:3">
-      <c r="A15" s="10">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:3">
-      <c r="A16" s="10">
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A16" s="23">
         <v>6</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:3">
-      <c r="A17" s="10">
+      <c r="B16" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:7">
+      <c r="A17" s="23">
         <v>7</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="B17" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:1">
       <c r="A18" s="10"/>
@@ -2703,26 +3462,30 @@
     <row r="19" s="1" customFormat="1" spans="1:5">
       <c r="A19" s="10"/>
       <c r="B19" s="13" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="14" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A20" s="10"/>
       <c r="B20" s="16" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
+        <v>92</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:1">
       <c r="A21" s="10"/>
@@ -2753,7 +3516,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="$A17:$XFD17 $A19:$XFD19"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2761,7 +3524,7 @@
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.8571428571429" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.2857142857143" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
@@ -2772,19 +3535,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="D1" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2794,46 +3557,80 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:4">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:3">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="C7" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
@@ -2844,7 +3641,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -2852,155 +3649,265 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:3">
-      <c r="A11" s="10">
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:7">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="23">
         <v>1</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:3">
-      <c r="A12" s="10">
+      <c r="B11" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="23">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A13" s="10">
+      <c r="B12" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A13" s="23">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A14" s="10">
+      <c r="B13" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A14" s="23">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:3">
-      <c r="A15" s="10">
+      <c r="B14" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:7">
+      <c r="A15" s="23">
         <v>5</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:3">
-      <c r="A16" s="10">
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A16" s="23">
         <v>6</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:3">
-      <c r="A17" s="10">
+      <c r="B16" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:7">
+      <c r="A17" s="23">
         <v>7</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:3">
-      <c r="A18" s="10">
+      <c r="B17" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A18" s="23">
         <v>8</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A19" s="10">
+      <c r="B18" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A19" s="23">
         <v>9</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A20" s="10">
+      <c r="B19" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A20" s="23">
         <v>10</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="60" spans="1:3">
-      <c r="A21" s="10">
+      <c r="B20" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A21" s="23">
         <v>11</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="45" spans="1:3">
-      <c r="A22" s="10">
+      <c r="B21" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A22" s="23">
         <v>12</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:3">
-      <c r="A23" s="10">
+      <c r="B22" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:7">
+      <c r="A23" s="23">
         <v>13</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="B23" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="10"/>
@@ -3008,26 +3915,30 @@
     <row r="25" s="1" customFormat="1" spans="1:5">
       <c r="A25" s="10"/>
       <c r="B25" s="13" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="14" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A26" s="10"/>
       <c r="B26" s="16" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
+        <v>92</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:1">
       <c r="A27" s="10"/>
@@ -3058,7 +3969,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3066,7 +3977,7 @@
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.4285714285714" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.2857142857143" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
@@ -3077,19 +3988,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="D1" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3099,46 +4010,80 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:4">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:3">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="C7" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
@@ -3149,7 +4094,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -3157,100 +4102,170 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:3">
-      <c r="A11" s="10">
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:7">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="23">
         <v>1</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:3">
-      <c r="A12" s="10">
+      <c r="B11" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="23">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A13" s="10">
+      <c r="B12" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A13" s="23">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A14" s="10">
+      <c r="B13" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A14" s="23">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:3">
-      <c r="A15" s="10">
+      <c r="B14" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:7">
+      <c r="A15" s="23">
         <v>5</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A16" s="10">
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A16" s="23">
         <v>6</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:3">
-      <c r="A17" s="10">
+      <c r="B16" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:7">
+      <c r="A17" s="23">
         <v>7</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:3">
-      <c r="A18" s="10">
+      <c r="B17" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A18" s="23">
         <v>8</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="B18" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:1">
       <c r="A19" s="10"/>
@@ -3258,26 +4273,30 @@
     <row r="20" s="1" customFormat="1" spans="1:5">
       <c r="A20" s="10"/>
       <c r="B20" s="13" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A21" s="10"/>
       <c r="B21" s="16" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
+        <v>92</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:1">
       <c r="A22" s="10"/>
@@ -3307,8 +4326,8 @@
   <sheetPr/>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3316,7 +4335,7 @@
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65.4285714285714" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.2857142857143" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
@@ -3327,19 +4346,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="D1" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3349,48 +4368,82 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="30" spans="1:4">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>154</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C5" s="21"/>
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:3">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="C7" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
@@ -3401,7 +4454,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -3409,144 +4462,246 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:3">
-      <c r="A11" s="10">
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:7">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="23">
         <v>1</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:3">
-      <c r="A12" s="10">
+      <c r="B11" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="23">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A13" s="10">
+      <c r="B12" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A13" s="23">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A14" s="10">
+      <c r="B13" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A14" s="23">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:3">
-      <c r="A15" s="10">
+      <c r="B14" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:7">
+      <c r="A15" s="23">
         <v>5</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="45" spans="1:3">
-      <c r="A16" s="10">
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A16" s="23">
         <v>6</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A17" s="10">
+      <c r="B16" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A17" s="23">
         <v>7</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:3">
-      <c r="A18" s="10">
+      <c r="B17" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:7">
+      <c r="A18" s="23">
         <v>8</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A19" s="10">
+      <c r="B18" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A19" s="23">
         <v>9</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="45" spans="1:3">
-      <c r="A20" s="10">
+      <c r="B19" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A20" s="23">
         <v>10</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="60" spans="1:3">
-      <c r="A21" s="10">
+      <c r="B20" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A21" s="23">
         <v>11</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:3">
-      <c r="A22" s="10">
+      <c r="B21" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:7">
+      <c r="A22" s="23">
         <v>12</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>171</v>
-      </c>
+      <c r="B22" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:1">
       <c r="A23" s="10"/>
@@ -3557,26 +4712,30 @@
     <row r="25" s="1" customFormat="1" spans="1:5">
       <c r="A25" s="10"/>
       <c r="B25" s="13" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="14" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A26" s="10"/>
       <c r="B26" s="16" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
+        <v>92</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:1">
       <c r="A27" s="10"/>
@@ -3626,13 +4785,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -3670,7 +4829,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -3683,7 +4842,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -3698,7 +4857,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -3710,7 +4869,7 @@
     <row r="10" s="1" customFormat="1" spans="1:2">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:3">
@@ -3718,10 +4877,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:3">
@@ -3729,10 +4888,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="30" spans="1:3">
@@ -3740,10 +4899,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="30" spans="1:3">
@@ -3751,10 +4910,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:3">
@@ -3762,10 +4921,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:3">
@@ -3773,10 +4932,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>182</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:3">
@@ -3784,10 +4943,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>183</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:1">
@@ -3799,23 +4958,23 @@
     <row r="20" s="1" customFormat="1" spans="1:5">
       <c r="A20" s="10"/>
       <c r="B20" s="13" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A21" s="10"/>
       <c r="B21" s="16" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="18"/>
